--- a/4 курс/Качество ПО/Practice6_KPIS_Parakhin_PRI120.xlsx
+++ b/4 курс/Качество ПО/Practice6_KPIS_Parakhin_PRI120.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="расчеты" sheetId="1" r:id="rId1"/>
@@ -453,29 +453,29 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2">
         <f>B2*B3/(B4*B5)</f>
-        <v>167.8719512195122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>153.27439024390245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="11">
-        <v>11799</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>10773</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -483,7 +483,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -491,7 +491,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
@@ -499,19 +499,19 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2">
         <f>B2/(B8*B5)</f>
-        <v>427.50000000000006</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>390.32608695652175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -519,19 +519,19 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="2">
         <f>B2/(B11*B5)</f>
-        <v>427.50000000000006</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>390.32608695652175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -539,19 +539,19 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="2">
         <f>B2/(B14*B5)</f>
-        <v>2458.125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>2244.375</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>10</v>
       </c>
@@ -559,28 +559,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="2">
         <f>B17+B19</f>
-        <v>905.625</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>826.875</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="9">
         <f>B2/(B18*B5)</f>
-        <v>517.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>472.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
@@ -588,19 +588,19 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="9">
         <f>0.75*B17</f>
-        <v>388.125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>354.375</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
@@ -608,28 +608,28 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="15">
         <f>B24*B25</f>
-        <v>3758.3786585365851</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+        <v>3434.1500795334041</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B24" s="9">
         <f>B1+B7+B10+B13+B16+B21</f>
-        <v>4421.6219512195121</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4040.1765641569459</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>18</v>
       </c>
